--- a/doc/小组分工v0.1.xlsx
+++ b/doc/小组分工v0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\康康\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\康康\Desktop\新建文件夹\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728744E-062A-4223-B47C-7D45958068E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16411A47-6951-431F-99CE-F13EEC973F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目简介与分工" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -56,40 +56,7 @@
     <t>温玉成</t>
   </si>
   <si>
-    <t>5月X日</t>
-  </si>
-  <si>
     <t>负责人</t>
-  </si>
-  <si>
-    <t>完成XX模块的YY功能</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>完成YY页面的开发</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>完成ZZ后端逻辑</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>完成前端页面的开发</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>5月Y日</t>
-  </si>
-  <si>
-    <t>完成YY模块的ZZ功能</t>
   </si>
   <si>
     <t>sgll4</t>
@@ -153,6 +120,126 @@
       <t xml:space="preserve">页面设计 ；2.框架搭建；3.登录注册功能；4.实现轮播图片；5.榜单模块；6.歌曲播放；7.歌曲播放循序；8.歌词滚动功能 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求说明文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张康</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定项目立题，分析技术难点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张康、吴志鹏、饶东东、温玉成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组功能模块分工与里程碑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立GitHub仓库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目概要设计说明书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴志鹏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后端设计逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成部分前端页面的开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>温玉成、饶东东</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目详细设计说明书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶东东</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目框架搭建</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成部分前端页面开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴志鹏、饶东东</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页导航栏设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态资源收集</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张康、吴志鹏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶东东、温玉成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页轮播图设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端数据的分析与引入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐歌单的页面设计</t>
+  </si>
+  <si>
+    <t>推荐歌单的页面设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新碟上架的页面设计</t>
+  </si>
+  <si>
+    <t>新碟上架的页面设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜单页面设计</t>
+  </si>
+  <si>
+    <t>榜单页面设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴志鹏、温玉成</t>
+  </si>
+  <si>
+    <t>吴志鹏、温玉成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -232,9 +319,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,14 +334,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:I5"/>
     </sheetView>
   </sheetViews>
@@ -548,113 +638,113 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>25</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>31</v>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>30</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -675,10 +765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -688,80 +778,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7">
+        <v>44685</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
+      <c r="A7" s="7">
+        <v>44686</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44687</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44690</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44691</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>44692</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>44693</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>44694</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>44697</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>44698</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>44699</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>44700</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>44701</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组分工v0.1.xlsx
+++ b/doc/小组分工v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\康康\Desktop\新建文件夹\src\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\康康\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16411A47-6951-431F-99CE-F13EEC973F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAE481-91F0-43F6-BA6B-64ECEE1AB201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -45,54 +45,6 @@
   </si>
   <si>
     <t>张康</t>
-  </si>
-  <si>
-    <t>吴志鹏</t>
-  </si>
-  <si>
-    <t>饶东东</t>
-  </si>
-  <si>
-    <t>温玉成</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>sgll4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -119,127 +71,154 @@
       </rPr>
       <t xml:space="preserve">页面设计 ；2.框架搭建；3.登录注册功能；4.实现轮播图片；5.榜单模块；6.歌曲播放；7.歌曲播放循序；8.歌词滚动功能 </t>
     </r>
+  </si>
+  <si>
+    <t>sgll4</t>
+  </si>
+  <si>
+    <t>2模块</t>
+  </si>
+  <si>
+    <t>6模块</t>
+  </si>
+  <si>
+    <t>吴志鹏</t>
+  </si>
+  <si>
+    <t>3模块</t>
+  </si>
+  <si>
+    <t>5模块</t>
+  </si>
+  <si>
+    <t>饶东东</t>
+  </si>
+  <si>
+    <t>4模块</t>
+  </si>
+  <si>
+    <t>7模块</t>
+  </si>
+  <si>
+    <t>温玉成</t>
+  </si>
+  <si>
+    <t>1模块</t>
+  </si>
+  <si>
+    <t>8模块</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>确定项目立题，分析技术难点</t>
+  </si>
+  <si>
+    <t>张康、吴志鹏、饶东东、温玉成</t>
+  </si>
+  <si>
+    <t>完成需求说明文档</t>
+  </si>
+  <si>
+    <t>完成小组功能模块分工与里程碑</t>
+  </si>
+  <si>
+    <t>建立GitHub仓库</t>
+  </si>
+  <si>
+    <t>完成项目概要设计说明书</t>
+  </si>
+  <si>
+    <t>完成后端设计逻辑</t>
+  </si>
+  <si>
+    <t>完成部分前端页面的开发</t>
+  </si>
+  <si>
+    <t>温玉成、饶东东</t>
+  </si>
+  <si>
+    <t>完成项目详细设计说明书</t>
+  </si>
+  <si>
+    <t>项目框架搭建</t>
+  </si>
+  <si>
+    <t>完成部分前端页面开发</t>
+  </si>
+  <si>
+    <t>吴志鹏、饶东东</t>
+  </si>
+  <si>
+    <t>首页导航栏设计</t>
+  </si>
+  <si>
+    <t>张康、吴志鹏</t>
+  </si>
+  <si>
+    <t>静态资源收集</t>
+  </si>
+  <si>
+    <t>饶东东、温玉成</t>
+  </si>
+  <si>
+    <t>后端数据的分析与引入</t>
+  </si>
+  <si>
+    <t>推荐歌单的页面设计</t>
+  </si>
+  <si>
+    <t>新碟上架的页面设计</t>
+  </si>
+  <si>
+    <t>榜单页面设计</t>
+  </si>
+  <si>
+    <t>吴志鹏、温玉成</t>
+  </si>
+  <si>
+    <t>登陆注册功能设计</t>
+  </si>
+  <si>
+    <t>歌曲播放功能设计</t>
+  </si>
+  <si>
+    <t>歌词滚动功能设计</t>
+  </si>
+  <si>
+    <t>歌曲循环播放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴志鹏 </t>
+  </si>
+  <si>
+    <t>歌曲播放循序</t>
+  </si>
+  <si>
+    <t>设计歌曲轮播背景图</t>
+  </si>
+  <si>
+    <t>温玉成，张康</t>
+  </si>
+  <si>
+    <t>页面设计布局优化</t>
+  </si>
+  <si>
+    <t>程序代码优化</t>
+  </si>
+  <si>
+    <t>页面设计布局优化，项目ppt</t>
+  </si>
+  <si>
+    <t>程序代码优化，项目演示视频</t>
+  </si>
+  <si>
+    <t>项目答辩</t>
+  </si>
+  <si>
+    <t>首页导航栏设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成需求说明文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张康</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定项目立题，分析技术难点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张康、吴志鹏、饶东东、温玉成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成小组功能模块分工与里程碑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立GitHub仓库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成项目概要设计说明书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴志鹏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成后端设计逻辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成部分前端页面的开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>温玉成、饶东东</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成项目详细设计说明书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>饶东东</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目框架搭建</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成部分前端页面开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴志鹏、饶东东</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页导航栏设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态资源收集</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张康、吴志鹏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>饶东东、温玉成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页轮播图设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端数据的分析与引入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐歌单的页面设计</t>
-  </si>
-  <si>
-    <t>推荐歌单的页面设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新碟上架的页面设计</t>
-  </si>
-  <si>
-    <t>新碟上架的页面设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>榜单页面设计</t>
-  </si>
-  <si>
-    <t>榜单页面设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴志鹏、温玉成</t>
-  </si>
-  <si>
-    <t>吴志鹏、温玉成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -319,12 +298,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,15 +315,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -620,7 +600,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -629,122 +609,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2" t="s">
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +737,7 @@
     <mergeCell ref="D2:I5"/>
     <mergeCell ref="J2:K5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -765,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -778,232 +758,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
+      <c r="A1" s="1">
         <v>44685</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>44686</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>44687</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44690</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>44690</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>44691</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>44692</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>44693</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>44694</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>28</v>
+      <c r="A47" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1011,62 +991,190 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>44697</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>44698</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>44699</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>44700</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>28</v>
+      <c r="A75" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>44701</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="A82" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/小组分工v0.1.xlsx
+++ b/doc/小组分工v0.1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\康康\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAE481-91F0-43F6-BA6B-64ECEE1AB201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="项目简介与分工" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -48,6 +42,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一个用于休闲娱乐音乐播放网站，拥有1</t>
     </r>
     <r>
@@ -69,7 +70,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">页面设计 ；2.框架搭建；3.登录注册功能；4.实现轮播图片；5.榜单模块；6.歌曲播放；7.歌曲播放循序；8.歌词滚动功能 </t>
+      <t>页面设计 ；2.框架搭建；3.导航栏设计；4榜单模块；5.歌曲播放；6.歌曲循序</t>
     </r>
   </si>
   <si>
@@ -79,36 +80,30 @@
     <t>2模块</t>
   </si>
   <si>
+    <t>5模块</t>
+  </si>
+  <si>
+    <t>吴志鹏</t>
+  </si>
+  <si>
+    <t>4模块</t>
+  </si>
+  <si>
+    <t>饶东东</t>
+  </si>
+  <si>
     <t>6模块</t>
   </si>
   <si>
-    <t>吴志鹏</t>
+    <t>温玉成</t>
+  </si>
+  <si>
+    <t>1模块</t>
   </si>
   <si>
     <t>3模块</t>
   </si>
   <si>
-    <t>5模块</t>
-  </si>
-  <si>
-    <t>饶东东</t>
-  </si>
-  <si>
-    <t>4模块</t>
-  </si>
-  <si>
-    <t>7模块</t>
-  </si>
-  <si>
-    <t>温玉成</t>
-  </si>
-  <si>
-    <t>1模块</t>
-  </si>
-  <si>
-    <t>8模块</t>
-  </si>
-  <si>
     <t>负责人</t>
   </si>
   <si>
@@ -154,60 +149,27 @@
     <t>首页导航栏设计</t>
   </si>
   <si>
+    <t>静态资源收集</t>
+  </si>
+  <si>
+    <t>饶东东、温玉成</t>
+  </si>
+  <si>
+    <t>歌曲播放</t>
+  </si>
+  <si>
     <t>张康、吴志鹏</t>
   </si>
   <si>
-    <t>静态资源收集</t>
-  </si>
-  <si>
-    <t>饶东东、温玉成</t>
-  </si>
-  <si>
-    <t>后端数据的分析与引入</t>
-  </si>
-  <si>
-    <t>推荐歌单的页面设计</t>
-  </si>
-  <si>
-    <t>新碟上架的页面设计</t>
-  </si>
-  <si>
     <t>榜单页面设计</t>
   </si>
   <si>
-    <t>吴志鹏、温玉成</t>
-  </si>
-  <si>
-    <t>登陆注册功能设计</t>
-  </si>
-  <si>
-    <t>歌曲播放功能设计</t>
-  </si>
-  <si>
-    <t>歌词滚动功能设计</t>
-  </si>
-  <si>
-    <t>歌曲循环播放</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吴志鹏 </t>
+    <t>页面设计布局优化</t>
   </si>
   <si>
     <t>歌曲播放循序</t>
   </si>
   <si>
-    <t>设计歌曲轮播背景图</t>
-  </si>
-  <si>
-    <t>温玉成，张康</t>
-  </si>
-  <si>
-    <t>页面设计布局优化</t>
-  </si>
-  <si>
-    <t>程序代码优化</t>
-  </si>
-  <si>
     <t>页面设计布局优化，项目ppt</t>
   </si>
   <si>
@@ -215,17 +177,19 @@
   </si>
   <si>
     <t>项目答辩</t>
-  </si>
-  <si>
-    <t>首页导航栏设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,40 +202,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -294,11 +567,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,34 +821,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -591,24 +1143,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -618,113 +1170,113 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:13">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+    <row r="3" ht="24" customHeight="1" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5" t="s">
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4" t="s">
+      <c r="M5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -737,444 +1289,397 @@
     <mergeCell ref="D2:I5"/>
     <mergeCell ref="J2:K5"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>44685</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>44686</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44687</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>44690</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44690</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44691</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44692</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>44693</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44697</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>44698</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>44699</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>44700</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>44704</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>44705</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>